--- a/PaperPlotsCodeReveiw/Full pressure sweep/050vPerCm_pos04p0psi/VddBeforeAfter.xlsx
+++ b/PaperPlotsCodeReveiw/Full pressure sweep/050vPerCm_pos04p0psi/VddBeforeAfter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviaseidel/Desktop/testStand/PaperData/Multichannel/noGem/50vPerCm_pos04p0psi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviaseidel/Desktop/TestStandOrginized/SAQ_TestStand/PaperPlotsCodeReveiw/Full pressure sweep/050vPerCm_pos04p0psi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D39F8A9-F9BD-894C-8446-C81DFD60E62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69533C9-C396-9F41-A790-0BF21D084054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4740" windowWidth="28800" windowHeight="12260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -315,7 +315,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -471,7 +471,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>1068</v>
+        <v>106.8</v>
       </c>
       <c r="C14" s="2">
         <v>107</v>
